--- a/desc felicidad 2.xls.xlsx
+++ b/desc felicidad 2.xls.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>mean</t>
   </si>
@@ -60,9 +60,6 @@
     <t>s16</t>
   </si>
   <si>
-    <t>s26_h</t>
-  </si>
-  <si>
     <t>s26_b</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>Perspectiva económica fliar</t>
   </si>
   <si>
-    <t>Tenencia agua caliente</t>
-  </si>
-  <si>
     <t># true</t>
   </si>
   <si>
@@ -139,14 +133,27 @@
   </si>
   <si>
     <t>N total</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>desvio</t>
+  </si>
+  <si>
+    <t>s26_c</t>
+  </si>
+  <si>
+    <t>Tenencia computadora</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -605,7 +612,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -648,8 +655,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -676,8 +684,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -713,6 +722,7 @@
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Porcentaje" xfId="42" builtinId="5"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -997,27 +1007,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="O9" activeCellId="1" sqref="L9 O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="8" width="5.7109375" customWidth="1"/>
+    <col min="3" max="7" width="6" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="19" width="5.85546875" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" customWidth="1"/>
+    <col min="10" max="15" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -1025,28 +1036,24 @@
       <c r="G1" s="6"/>
       <c r="I1" s="2"/>
       <c r="J1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="6"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N1" s="13"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="9" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>2</v>
@@ -1055,7 +1062,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="9" t="s">
@@ -1065,46 +1072,34 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>2</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="Q2" s="4"/>
       <c r="R2" s="9" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7">
         <v>1.8986229999999999</v>
@@ -1128,46 +1123,34 @@
       <c r="K3" s="10">
         <v>0.84117039999999998</v>
       </c>
-      <c r="L3" s="11">
-        <v>1</v>
-      </c>
-      <c r="M3" s="11">
-        <v>4</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="10">
+      <c r="L3" s="11"/>
+      <c r="M3" s="10">
         <v>2.0577160000000001</v>
       </c>
-      <c r="P3" s="10">
+      <c r="N3" s="10">
         <v>0.95663560000000003</v>
       </c>
-      <c r="Q3" s="11">
-        <v>1</v>
-      </c>
-      <c r="R3" s="11">
-        <v>4</v>
-      </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="6">
+      <c r="O3" s="6"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="6">
+        <v>581</v>
+      </c>
+      <c r="S3" s="6">
         <v>3456</v>
       </c>
-      <c r="W3" s="6">
-        <v>581</v>
-      </c>
-      <c r="X3" s="6">
+      <c r="T3" s="6">
         <v>4037</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7">
         <v>9.8787350000000007</v>
@@ -1191,46 +1174,34 @@
       <c r="K4" s="7">
         <v>2.5951759999999999</v>
       </c>
-      <c r="L4" s="6">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6">
-        <v>18</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7">
+      <c r="L4" s="6"/>
+      <c r="M4" s="7">
         <v>9.5328210000000002</v>
       </c>
-      <c r="P4" s="7">
+      <c r="N4" s="7">
         <v>2.7919649999999998</v>
       </c>
-      <c r="Q4" s="6">
-        <v>1</v>
+      <c r="O4" s="6"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="R4" s="6">
-        <v>18</v>
-      </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V4" s="6">
-        <v>1162</v>
-      </c>
-      <c r="W4" s="6">
-        <v>221</v>
-      </c>
-      <c r="X4" s="6">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="S4" s="6">
+        <v>1192</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0.79413560000000005</v>
@@ -1256,55 +1227,43 @@
       <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="L5" s="6">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7">
+      <c r="L5" s="6"/>
+      <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="P5" s="7">
+      <c r="N5" s="7">
         <v>0</v>
       </c>
-      <c r="Q5" s="6">
-        <v>0</v>
+      <c r="O5" s="6"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="R5" s="6">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" s="6">
-        <v>1192</v>
-      </c>
-      <c r="W5" s="6">
-        <v>194</v>
-      </c>
-      <c r="X5" s="6">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="S5" s="6">
+        <v>1162</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>3.5053540000000001</v>
+        <v>3.53</v>
       </c>
       <c r="D6" s="7">
-        <v>1.005466</v>
+        <v>0.93</v>
       </c>
       <c r="E6" s="6">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="6">
         <v>5</v>
@@ -1314,60 +1273,48 @@
         <v>7</v>
       </c>
       <c r="J6" s="7">
-        <v>3.529506</v>
+        <v>3.55</v>
       </c>
       <c r="K6" s="7">
-        <v>0.98751820000000001</v>
-      </c>
-      <c r="L6" s="6">
-        <v>-2</v>
-      </c>
-      <c r="M6" s="6">
-        <v>5</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7">
-        <v>3.4121869999999999</v>
-      </c>
-      <c r="P6" s="7">
-        <v>1.066905</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>-2</v>
+        <v>0.93</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7">
+        <v>3.47</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="R6" s="6">
-        <v>5</v>
-      </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" s="6">
+        <v>125</v>
+      </c>
+      <c r="S6" s="6">
         <v>792</v>
       </c>
-      <c r="W6" s="6">
-        <v>125</v>
-      </c>
-      <c r="X6" s="6">
+      <c r="T6" s="6">
         <v>917</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7">
-        <v>2.0021930000000001</v>
+        <v>2.1</v>
       </c>
       <c r="D7" s="7">
         <v>0.89692400000000005</v>
       </c>
       <c r="E7" s="6">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
@@ -1377,60 +1324,48 @@
         <v>8</v>
       </c>
       <c r="J7" s="7">
-        <v>2.0310790000000001</v>
+        <v>2.1</v>
       </c>
       <c r="K7" s="7">
-        <v>0.85008260000000002</v>
-      </c>
-      <c r="L7" s="6">
-        <v>-2</v>
-      </c>
-      <c r="M7" s="6">
-        <v>3</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="7">
-        <v>1.89076</v>
-      </c>
-      <c r="P7" s="7">
-        <v>1.051077</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>-2</v>
+        <v>0.69</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="7">
+        <v>2.09</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="R7" s="6">
-        <v>3</v>
-      </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V7" s="6">
+        <v>41</v>
+      </c>
+      <c r="S7" s="6">
         <v>310</v>
       </c>
-      <c r="W7" s="6">
-        <v>41</v>
-      </c>
-      <c r="X7" s="6">
+      <c r="T7" s="6">
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7">
-        <v>2.3952070000000001</v>
+        <v>2.6</v>
       </c>
       <c r="D8" s="7">
-        <v>1.3639380000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E8" s="6">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="6">
         <v>5</v>
@@ -1440,113 +1375,95 @@
         <v>9</v>
       </c>
       <c r="J8" s="7">
-        <v>2.390676</v>
+        <v>2.56</v>
       </c>
       <c r="K8" s="7">
-        <v>1.3085290000000001</v>
-      </c>
-      <c r="L8" s="6">
-        <v>-2</v>
-      </c>
-      <c r="M8" s="6">
-        <v>5</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7">
+        <v>1.07</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="7">
         <v>2.4126829999999999</v>
       </c>
-      <c r="P8" s="7">
+      <c r="N8" s="7">
         <v>1.559401</v>
       </c>
-      <c r="Q8" s="6">
-        <v>-2</v>
+      <c r="O8" s="6"/>
+      <c r="Q8" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="R8" s="6">
-        <v>5</v>
-      </c>
-      <c r="S8" s="6"/>
-      <c r="U8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="V8" s="6">
+        <v>9037</v>
+      </c>
+      <c r="S8" s="6">
         <v>6536</v>
       </c>
-      <c r="W8" s="6">
-        <v>9037</v>
-      </c>
-      <c r="X8" s="6">
+      <c r="T8" s="6">
         <v>15573</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="7">
-        <v>1.7492099999999999</v>
+        <v>1.86</v>
       </c>
       <c r="D9" s="7">
-        <v>0.74831689999999995</v>
+        <v>0.33</v>
       </c>
       <c r="E9" s="6">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="6">
         <v>2</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6">
+        <v>2486</v>
+      </c>
       <c r="I9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="7">
-        <v>1.7753159999999999</v>
+        <v>1.87</v>
       </c>
       <c r="K9" s="7">
-        <v>0.68846280000000004</v>
+        <v>0.33</v>
       </c>
       <c r="L9" s="6">
-        <v>-2</v>
-      </c>
-      <c r="M9" s="6">
-        <v>2</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="7">
-        <v>1.648501</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0.93762659999999998</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>-2</v>
+        <v>1943</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1.85</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="O9" s="6">
+        <v>543</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="R9" s="6">
-        <v>2</v>
-      </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V9" s="6">
-        <v>2284</v>
-      </c>
-      <c r="W9" s="6">
-        <v>3739</v>
-      </c>
-      <c r="X9" s="6">
-        <v>6023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>3478</v>
+      </c>
+      <c r="S9" s="6">
+        <v>2705</v>
+      </c>
+      <c r="T9" s="6">
+        <v>6183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>1.509536</v>
@@ -1567,55 +1484,43 @@
         <v>11</v>
       </c>
       <c r="J10" s="7">
-        <v>1.4197010000000001</v>
+        <v>1.41</v>
       </c>
       <c r="K10" s="7">
-        <v>0.49352580000000001</v>
+        <v>0.49</v>
       </c>
       <c r="L10" s="6">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
-        <v>2</v>
-      </c>
-      <c r="N10" s="6">
         <v>9037</v>
       </c>
-      <c r="O10" s="7">
-        <v>1.8560810000000001</v>
-      </c>
-      <c r="P10" s="7">
+      <c r="M10" s="7">
+        <v>1.85</v>
+      </c>
+      <c r="N10" s="7">
         <v>0.3510508</v>
       </c>
-      <c r="Q10" s="6">
-        <v>1</v>
+      <c r="O10" s="6">
+        <v>581</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="R10" s="6">
-        <v>2</v>
+        <v>3739</v>
       </c>
       <c r="S10" s="6">
-        <v>581</v>
-      </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10" s="6">
-        <v>2705</v>
-      </c>
-      <c r="W10" s="6">
-        <v>3478</v>
-      </c>
-      <c r="X10" s="6">
-        <v>6183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2284</v>
+      </c>
+      <c r="T10" s="6">
+        <v>6023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="7">
         <v>1.043361</v>
@@ -1634,57 +1539,45 @@
         <v>12</v>
       </c>
       <c r="J11" s="7">
-        <v>1.1441399999999999</v>
+        <v>11.44</v>
       </c>
       <c r="K11" s="7">
-        <v>3.702283</v>
-      </c>
-      <c r="L11" s="6">
-        <v>1</v>
-      </c>
-      <c r="M11" s="6">
-        <v>17</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="7">
-        <v>6.5459500000000004</v>
-      </c>
-      <c r="P11" s="7">
-        <v>4.312862</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>1</v>
+        <v>3.7</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="7">
+        <v>6.54</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="R11" s="6">
-        <v>17</v>
-      </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V11" s="6">
+        <v>1509</v>
+      </c>
+      <c r="S11" s="6">
         <v>1263</v>
       </c>
-      <c r="W11" s="6">
-        <v>1509</v>
-      </c>
-      <c r="X11" s="6">
+      <c r="T11" s="6">
         <v>2772</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C12" s="7">
-        <v>1.6357980000000001</v>
+        <v>1.57</v>
       </c>
       <c r="D12" s="7">
-        <v>0.48121789999999998</v>
+        <v>0.49</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
@@ -1693,70 +1586,58 @@
         <v>2</v>
       </c>
       <c r="G12" s="6">
-        <v>7142</v>
+        <v>13582</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="6">
+        <v>10537</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.187</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="O12" s="6">
+        <v>3045</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="6">
+        <v>311</v>
+      </c>
+      <c r="S12" s="6">
+        <v>284</v>
+      </c>
+      <c r="T12" s="6">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="7">
-        <v>1.5901240000000001</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0.4918264</v>
-      </c>
-      <c r="L12" s="6">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6">
-        <v>2</v>
-      </c>
-      <c r="N12" s="6">
-        <v>6383</v>
-      </c>
-      <c r="O12" s="7">
-        <v>1.8119890000000001</v>
-      </c>
-      <c r="P12" s="7">
-        <v>0.39076929999999999</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>1</v>
-      </c>
-      <c r="R12" s="6">
-        <v>2</v>
-      </c>
-      <c r="S12" s="6">
-        <v>759</v>
-      </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V12" s="6">
-        <v>284</v>
-      </c>
-      <c r="W12" s="6">
-        <v>311</v>
-      </c>
-      <c r="X12" s="6">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7">
         <v>1.3006120000000001</v>
       </c>
       <c r="D13" s="7">
-        <v>0.48512440000000001</v>
+        <v>0.46</v>
       </c>
       <c r="E13" s="6">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="6">
         <v>2</v>
@@ -1765,41 +1646,29 @@
         <v>13551</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" s="7">
         <v>1.316317</v>
       </c>
       <c r="K13" s="7">
-        <v>0.49241770000000001</v>
+        <v>0.46</v>
       </c>
       <c r="L13" s="6">
-        <v>-2</v>
-      </c>
-      <c r="M13" s="6">
-        <v>2</v>
-      </c>
-      <c r="N13" s="6">
         <v>10511</v>
       </c>
-      <c r="O13" s="7">
+      <c r="M13" s="7">
         <v>1.24003</v>
       </c>
-      <c r="P13" s="7">
-        <v>0.45085839999999999</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>-2</v>
-      </c>
-      <c r="R13" s="6">
-        <v>2</v>
-      </c>
-      <c r="S13" s="6">
+      <c r="N13" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="O13" s="6">
         <v>3040</v>
       </c>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -1815,27 +1684,23 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="V14" s="6">
+      <c r="Q14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="6">
+        <v>9618</v>
+      </c>
+      <c r="S14" s="6">
         <v>9992</v>
       </c>
-      <c r="W14" s="6">
-        <v>9618</v>
-      </c>
-      <c r="X14" s="6">
+      <c r="T14" s="6">
         <v>19610</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4">
         <v>19610</v>
@@ -1845,31 +1710,83 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J15" s="4">
         <v>15573</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="M15" s="4">
+        <v>4037</v>
+      </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="4">
-        <v>4037</v>
-      </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O15" s="4"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T18">
+        <f>+T8/T14</f>
+        <v>0.79413564507904133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <f>+R9+R4</f>
+        <v>3672</v>
+      </c>
+      <c r="S21">
+        <f>+S9+S4</f>
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <f t="shared" ref="R22:S22" si="0">+R10+R5</f>
+        <v>3960</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <f t="shared" ref="R23:S23" si="1">+R11+R6</f>
+        <v>1634</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="1"/>
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <f t="shared" ref="R24:S24" si="2">+R12+R7</f>
+        <v>352</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R26" s="14">
+        <f>+R24/R14</f>
+        <v>3.6598045331669785E-2</v>
+      </c>
+      <c r="S26" s="14">
+        <f>+S24/S14</f>
+        <v>5.944755804643715E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
@@ -1881,15 +1798,15 @@
       <c r="I30" s="3"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="J31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
